--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,78 +458,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0c2b91cca21d74f3835e65f51e1618be1a20a108d4cccc60bd0be29c7b5fe32d486f18000eacfb0f489b8af4b9c80caf1a84dfd364b509ce1c472a6440e3a54d17f2c7e12b60d132ed0f06a5271b5c19ca58d684a166a3184dec0c8faf116984e1335ed740415d5fb346f88d134761c723608b6289ce18d7f5ac0585f4e104c29637be377581951af2a9da979c881d2167290c900ad6db311f55d38941ef252621ae7459bd696d4a77587f5186814aee181141ce5c54932d9dd3b28257e534bac1bd7a14a7fcc875f750003b3d564086b57f4f98abfd5c9bb5d100dae6ddd13123ae64291746604b811a08bbfa2e25e1b6eb51d43a6cc48ea680fc643c5fd01a</t>
+          <t>a6974d9c97696d87c714cccef3a2011c0483e54e6dd7b2419dd5974caece21d6f68b85dc93c2a4bcc732b254b27d5013105cfb5307d254ce269c31a9fcf0be32aa4b5093f809e849689cb4b010dac002c96e2cd001e67198a00d59b9edd4189f59773ce5914c43bf2e64cb4a073e2618815b57a769ca38fcb6cef7e48ed459f4c3c2caaeee2e159bf17cd62652ed583624409f1954be112c93b9edf4acae26a3e6879e9686821ef7e0ab920929843374f400eba7454e9375ee233d13dbda890b9eb188c03a71817a6633f52571833d8d31b8411665c5025071658034ec410e29b8504b0e6ab86332e38aada22197c4c1c65d8bc8f39f878cc54923ba3cce89ce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Habiba</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4fc178bad1f3d0234cb5a41cd9c19b421253d04b0b5ea022686fd1fee97925eba36259185832c6710dffd8ae3413c84594d126a530da2787230810cd28e32fa0fc8c5170f2829a3b53bc57ab0cc703b6c713cb5253844007fae77e6e677c15d100289e7860862693eb854c71739c45969b6acc54759d2be9193d93e5a8e709668bb1c6773e146557637fe352bc083a5a81aaf7c798b124e6d5bad235040a44fca0ad7319e96eace30885fb36dc2678917f98edc40c6107b9f1745be8277039308e9b13fca67485aa4ebade374754bd3aef1c5940241a7f8219e02a752847f3373675219adf89ed2bf5cbcf4dca631f16a739abf83887c7cbeb12ad65a8d690b8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ahmed Tarek</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>62e184aeaf08a51783ba52c34af6535d5564a2ff76fe63e6de82b538f0178974a72f8b31dde937f076d5f44bff9d2c3fe46c6f45834e2a6e5f67647e80145f98a8c7b48f1a951b6d1f734d571c9794735923d2b78fb845f74a575696c32bb76552f679c8cbb38b1791ce0ce5dbde265bc1c1656933e25af525ba3759cc6b144ff073e546d3669b846de1c58d7854b04101a50b7de45b020b2d957aa399c34a619a36ce2e32cfb9c1064b5a26868bd75c9bf90dd949daac350fa6b2e04d6c11368d46ceafcbc0189d0b48ecaef4a878d10410fbf8d8603f28b53f2e0eb35801160f84a5c06a838642c17c5c07aaa6cd8fe5a0364cb23d7012f30c837f3b7e1c4c</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Patrick</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>25a4cd8c425acb96d6d45a6f5a1a2906079351d7d835416553a4b081ab7cc1591ca67b54e57b567fd5bb519166616f9fc306a8a3d028b46dd3eef445cb64848bf7cbba2cfcdd04a826e3bcf72780a4881cf444be9a41eaa7548cc14444167681560427f362e9e7c8a8c4790146375b105d95635edeb3b576ab7457235eff1cf7469ef92aa64d389299f5376c564916b89c6447fc190aa406369da1cbf97aceee7fa96b9fcb29bcf761fe3ff869a6cf510126ea395871be163c5c1dd58deaaf9514711cffda3997b1fec5af3f046505c092a6d297cdeba4b576995b4f55f56b0115c27142ea07d87c37321fc035bb9a27c800ee8af06864204b23d7f4d349137f</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>omarharp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>978ac51e937c28722e8507ffc21f710341f0f4b51efa5af3f2d4472ceb8af314:08cf8cf13a5c681be9f29e54bbb59a46616ce31ae4e16fe156f56b6be2d8530b9d7f554e7dd3cd0eda790f947c94c04ff04e64e1792bd8c4f760cc2587feea5960fee90cd3c826dc2b00aa541e72681411c7de9a23ac5c1ae3f8dabd0a56836904051dada3b3541c74bf8c24d222d309bdc43ec67f435f94a6bf6f3d45fed3a96ec605486470533990eca17ff83c232314209d5df71698efff2b6808b594a9445a201d7047fe2b24042c8a6b6a02a9992fc367953fabd2be155524af1ff5676fa39e5e6bfc25a333f973a928a0527c43c4db914cbe808873f1fb79086ae33903dad695c0f31d059311681fa6bb6cb04d2c8a9be8a41485c1f646abf172df6a29</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
